--- a/analysis/Time_to_train_vs_learning_rate copy.xlsx
+++ b/analysis/Time_to_train_vs_learning_rate copy.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmack/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidmack/dev/octavian/publication/learning-rates/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,10 @@
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Time_to_train_vs_learning_rate" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="17" r:id="rId5"/>
-    <pivotCache cacheId="20" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2366,11 +2366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1197955088"/>
-        <c:axId val="1197956864"/>
+        <c:axId val="1853198288"/>
+        <c:axId val="1853200064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1197955088"/>
+        <c:axId val="1853198288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197956864"/>
+        <c:crossAx val="1853200064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1197956864"/>
+        <c:axId val="1853200064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1197955088"/>
+        <c:crossAx val="1853198288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,7 +2592,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4709,11 +4708,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1196234096"/>
-        <c:axId val="1196235456"/>
+        <c:axId val="1676104176"/>
+        <c:axId val="1853207792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1196234096"/>
+        <c:axId val="1676104176"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4746,7 +4745,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4812,12 +4810,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196235456"/>
+        <c:crossAx val="1853207792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1196235456"/>
+        <c:axId val="1853207792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4863,7 +4861,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4893,6 +4890,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4929,7 +4927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1196234096"/>
+        <c:crossAx val="1676104176"/>
         <c:crossesAt val="1.0E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7180,11 +7178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1636443392"/>
-        <c:axId val="1636619072"/>
+        <c:axId val="1853260224"/>
+        <c:axId val="1853263984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1636443392"/>
+        <c:axId val="1853260224"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7283,12 +7281,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636619072"/>
+        <c:crossAx val="1853263984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1636619072"/>
+        <c:axId val="1853263984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7400,7 +7398,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1636443392"/>
+        <c:crossAx val="1853260224"/>
         <c:crossesAt val="1.0E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7529,7 +7527,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Minimum and maximum time to train by optimizer</a:t>
+              <a:t>Minimum and maximum time to train by learning rate, across all optimizers</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8254,11 +8252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1664887728"/>
-        <c:axId val="1664889776"/>
+        <c:axId val="1853289312"/>
+        <c:axId val="1853292656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1664887728"/>
+        <c:axId val="1853289312"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8372,12 +8370,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664889776"/>
+        <c:crossAx val="1853292656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1664889776"/>
+        <c:axId val="1853292656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -8491,7 +8489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1664887728"/>
+        <c:crossAx val="1853289312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8589,7 +8587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8776,11 +8773,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1671313920"/>
-        <c:axId val="1671304032"/>
+        <c:axId val="1676145024"/>
+        <c:axId val="1676147776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1671313920"/>
+        <c:axId val="1676145024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8823,7 +8820,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671304032"/>
+        <c:crossAx val="1676147776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8831,7 +8828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671304032"/>
+        <c:axId val="1676147776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8877,7 +8874,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8937,7 +8933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671313920"/>
+        <c:crossAx val="1676145024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8951,7 +8947,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15593,7 +15588,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -15853,7 +15848,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="17" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -16393,7 +16388,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -18648,7 +18643,7 @@
   <dimension ref="A3:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="63" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/Time_to_train_vs_learning_rate copy.xlsx
+++ b/analysis/Time_to_train_vs_learning_rate copy.xlsx
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -2366,11 +2366,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1853198288"/>
-        <c:axId val="1853200064"/>
+        <c:axId val="-1143299824"/>
+        <c:axId val="-1143298048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1853198288"/>
+        <c:axId val="-1143299824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,7 +2413,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853200064"/>
+        <c:crossAx val="-1143298048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2421,7 +2421,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1853200064"/>
+        <c:axId val="-1143298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2472,7 +2472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853198288"/>
+        <c:crossAx val="-1143299824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2592,6 +2592,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4708,11 +4709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1676104176"/>
-        <c:axId val="1853207792"/>
+        <c:axId val="-1143335616"/>
+        <c:axId val="-1143333840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1676104176"/>
+        <c:axId val="-1143335616"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -4745,6 +4746,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4810,12 +4812,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853207792"/>
+        <c:crossAx val="-1143333840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1853207792"/>
+        <c:axId val="-1143333840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4861,6 +4863,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4927,7 +4930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676104176"/>
+        <c:crossAx val="-1143335616"/>
         <c:crossesAt val="1.0E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5042,7 +5045,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5075,7 +5078,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -5093,7 +5096,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0654157743880341"/>
+          <c:y val="0.0811309523809524"/>
+          <c:w val="0.790865565183013"/>
+          <c:h val="0.812539526309211"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -5112,7 +5125,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -5127,7 +5140,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -5458,7 +5471,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -5473,7 +5486,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -5804,7 +5817,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -5819,7 +5832,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent3"/>
                 </a:solidFill>
@@ -6150,7 +6163,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
@@ -6165,7 +6178,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent4"/>
                 </a:solidFill>
@@ -6839,7 +6852,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
@@ -6854,7 +6867,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent6"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent6"/>
                 </a:solidFill>
@@ -7178,11 +7191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1853260224"/>
-        <c:axId val="1853263984"/>
+        <c:axId val="-1142051728"/>
+        <c:axId val="-1142049952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1853260224"/>
+        <c:axId val="-1142051728"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -7196,7 +7209,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7209,7 +7222,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Learning rate</a:t>
                 </a:r>
               </a:p>
@@ -7229,7 +7242,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7245,6 +7258,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7266,7 +7280,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7281,12 +7295,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853263984"/>
+        <c:crossAx val="-1142049952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1853263984"/>
+        <c:axId val="-1142049952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7313,7 +7327,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -7326,7 +7340,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Time to train (seconds)</a:t>
                 </a:r>
               </a:p>
@@ -7346,7 +7360,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -7383,7 +7397,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7398,13 +7412,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853260224"/>
+        <c:crossAx val="-1142051728"/>
         <c:crossesAt val="1.0E-6"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="57150">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -7416,16 +7430,16 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.852623941958888"/>
-          <c:y val="0.400713053298617"/>
-          <c:w val="0.13770253929867"/>
-          <c:h val="0.254529911848668"/>
+          <c:x val="0.858900108720719"/>
+          <c:y val="0.347141607299088"/>
+          <c:w val="0.127242282476197"/>
+          <c:h val="0.365641013623297"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="28575">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -7435,7 +7449,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7475,7 +7489,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1200">
           <a:latin typeface="Work Sans" charset="0"/>
           <a:ea typeface="Work Sans" charset="0"/>
           <a:cs typeface="Work Sans" charset="0"/>
@@ -7513,7 +7527,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -7546,7 +7560,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -7575,7 +7589,7 @@
             <c:v>Max time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -7590,7 +7604,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
@@ -7913,7 +7927,7 @@
             <c:v>Min time</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -7928,7 +7942,7 @@
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:ln w="9525">
+              <a:ln w="28575">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
@@ -8252,11 +8266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1853289312"/>
-        <c:axId val="1853292656"/>
+        <c:axId val="-1143364672"/>
+        <c:axId val="-1143361552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1853289312"/>
+        <c:axId val="-1143364672"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -8284,7 +8298,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8297,7 +8311,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Learning rate</a:t>
                 </a:r>
               </a:p>
@@ -8317,7 +8331,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8355,7 +8369,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8370,12 +8384,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853292656"/>
+        <c:crossAx val="-1143361552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1853292656"/>
+        <c:axId val="-1143361552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -8403,7 +8417,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -8416,7 +8430,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" b="1"/>
                   <a:t>Time to train (seconds)</a:t>
                 </a:r>
               </a:p>
@@ -8436,7 +8450,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -8474,7 +8488,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -8489,7 +8503,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1853289312"/>
+        <c:crossAx val="-1143364672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8525,7 +8539,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr>
+        <a:defRPr sz="1400">
           <a:latin typeface="Work Sans" charset="0"/>
           <a:ea typeface="Work Sans" charset="0"/>
           <a:cs typeface="Work Sans" charset="0"/>
@@ -8773,11 +8787,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1676145024"/>
-        <c:axId val="1676147776"/>
+        <c:axId val="-954428832"/>
+        <c:axId val="-954426080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1676145024"/>
+        <c:axId val="-954428832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8820,7 +8834,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676147776"/>
+        <c:crossAx val="-954426080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8828,7 +8842,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1676147776"/>
+        <c:axId val="-954426080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8933,7 +8947,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1676145024"/>
+        <c:crossAx val="-954428832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11854,8 +11868,8 @@
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -15588,7 +15602,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:H53" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -15848,7 +15862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C53" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -16388,7 +16402,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField showAll="0" defaultSubtotal="0"/>
@@ -18642,7 +18656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="63" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="96" zoomScaleNormal="96" zoomScalePageLayoutView="96" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
